--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/14_Batman_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/14_Batman_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97743D02-F049-4B11-98E8-09F3620DA15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4138B0A-B292-4998-8395-8290834C2C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{016308DA-796B-4CC1-AD3C-F5FE0E6794EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{40E14F21-5E1A-472B-9625-B64D8E2F967D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -924,14 +924,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{537975F3-B418-48C8-A604-9750E7AF421D}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{76618DE7-4543-49CE-A012-C16E873B4233}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{0BC8E61E-0DEA-4086-A87D-7E14BB962FFB}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{98046ECE-1F45-4060-8A9C-3FB9C0D663DA}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{76C88B01-EBEE-488A-983A-0B19D9A22ECB}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{EA9A1FF9-4D45-470E-BD65-B90B7E41255B}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{71CB2DDF-8AEE-4CDB-AA40-C320EE4FCA34}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A244B883-3DAC-4CEE-8A42-A7F5AF64FAAB}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6B281901-CD3B-4539-A0E3-BBF36DCBDDDB}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7C5F93CF-C17D-4957-AD2C-C8A629392B66}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{EFF8C3DB-47DC-4A85-B208-CB8AF2F6C657}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{BD559C77-F460-43A9-9B6C-771AC15F72DE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{42CB2E2C-4D00-4793-BE6A-327185E8FDDB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6224B1E7-C24A-45DD-BD0E-03C189EDCA74}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{9DD6AA36-4415-4C01-B480-096778CAD277}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{652F3447-388E-447E-A0DC-229B8A933496}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1301,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75868863-31C2-49CF-BF7E-4D5C8C21CF09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C5B6B6-9578-479C-84E6-4B242AE5C4B0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2549,7 +2549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7E7DB6-05E4-4B27-A2FF-97C6B2F92E03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F156B4E-ECBF-4CE5-9439-BD978D908DE0}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3765,7 +3765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EC2CB6-AB12-442F-876D-3323A8272FB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FA0326-B6B1-4701-9582-CC34D34C0F2B}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -4981,7 +4981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC89E857-1D2F-48A4-9AED-F3DBD8BBE9FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2C2C55-E1FD-48AB-81D1-D2F0302CEE8E}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6187,7 +6187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B52DDF9-FF5A-4703-81DB-178BEBC5CD3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC9DDB7-3725-4FEE-B1F0-953EA4199200}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7440,7 +7440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632ADD44-00C4-4F5C-BD02-22F1E7BEA95B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A474E8-3E90-4372-8BF5-68A378786512}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8693,7 +8693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8557F460-9BFF-420B-9945-783B7CF179E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDC7984-72C9-466A-B9CB-B86BEE548C4F}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9947,7 +9947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46D4F0-DAB6-4DEA-B25A-32B7B71D7616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1179A199-F012-495B-9901-90FD31497CA7}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11201,7 +11201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE02CE2B-9E0F-419D-9E5B-F053C8D95F69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379CA3-CF36-481C-A72D-CA8A120D21FE}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12455,7 +12455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7FEFE8-7C34-4CD7-96B6-F5284EF09B02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988C4FBC-C0D9-4A20-982A-4452F89C1554}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13695,7 +13695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82E71B2-883A-44DE-843F-5BF8DAEA8A49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E31C7EC-C6DF-4C63-99EB-A1F3957F3862}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14935,7 +14935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8BEE82-5D0E-40B5-9F14-3073C4C305B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D3BE81-A96A-47E1-934E-E652E89D2473}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
